--- a/Assets/MiniTemplate/Datas/weapon.xlsx
+++ b/Assets/MiniTemplate/Datas/weapon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -568,6 +580,26 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/MiniTemplate/Datas/weapon.xlsx
+++ b/Assets/MiniTemplate/Datas/weapon.xlsx
@@ -101,43 +101,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0,4.54,0;0.261,3.615,0;0.247,2.773,0;0.261,2.141,0;0.261,1.382,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightPunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftPunch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(array#sep=;),vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,4.54,0;0.261,3.615,0;0.247,2.773,0;0.261,2.141,0;0.261,1.382,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightPunch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftPunch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -529,7 +529,7 @@
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -565,19 +565,19 @@
         <v>1002</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -585,19 +585,19 @@
         <v>1003</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MiniTemplate/Datas/weapon.xlsx
+++ b/Assets/MiniTemplate/Datas/weapon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,11 +133,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>(array#sep=;),vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Full Metal Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heavy Full Metal Sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>(array#sep=;),vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitLinePos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-0.123,-0.515;0,-0.125,0.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-69.537,-59.55,-32.824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.259,0.587,0.117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0;-0.1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0;-0.1,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +189,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,13 +204,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,15 +235,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,80 +527,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="17.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="55.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -559,18 +629,21 @@
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1002</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
@@ -579,25 +652,57 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1003</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MiniTemplate/Datas/weapon.xlsx
+++ b/Assets/MiniTemplate/Datas/weapon.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,47 +141,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(array#sep=;),vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitLinePos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-0.123,-0.515;0,-0.125,0.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-69.537,-59.55,-32.824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.259,0.587,0.117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0;-0.1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0;-0.1,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Katana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.145953,0.145953,0.145953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Heavy Full Metal Sword</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(array#sep=;),vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hitLinePos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-0.123,-0.515;0,-0.125,0.97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-69.537,-59.55,-32.824</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.259,0.587,0.117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0;-0.1,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0;-0.1,0,0</t>
+    <t>Evil_spirit_katana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.508,0.23,0;-9.52,0.23,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.052,-0.294,-0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.004,-142.923,-97.841</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -539,7 +567,7 @@
     <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.25" customWidth="1"/>
     <col min="8" max="8" width="55.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -570,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -599,7 +627,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -630,7 +658,7 @@
         <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -653,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -673,10 +701,10 @@
         <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -687,22 +715,48 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MiniTemplate/Datas/weapon.xlsx
+++ b/Assets/MiniTemplate/Datas/weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,15 +201,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-2.508,0.23,0;-9.52,0.23,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-0.052,-0.294,-0.07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-9.004,-142.923,-97.841</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2.508,0.23,0;-11.52,0.23,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +558,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,7 +569,7 @@
     <col min="6" max="6" width="25.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.25" customWidth="1"/>
     <col min="8" max="8" width="55.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -744,10 +744,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -756,7 +756,7 @@
         <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/MiniTemplate/Datas/weapon.xlsx
+++ b/Assets/MiniTemplate/Datas/weapon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,14 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0;-0.1,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0;-0.1,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Katana</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +202,14 @@
   </si>
   <si>
     <t>-2.508,0.23,0;-11.52,0.23,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0;-0.45,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0;-0.45,0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -704,7 +704,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>37</v>
@@ -738,25 +738,25 @@
         <v>1005</v>
       </c>
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
